--- a/cloudfun/day-1/CloudCore-FY21-Day-1.xlsx
+++ b/cloudfun/day-1/CloudCore-FY21-Day-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deltadan/Documents/GitHub/cloud-core-fix/cloudfun/day-1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DB\Dropbox (Personal)\GitHub\cloud-core-2020-fix2\cloudfun\day-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119DA6D4-C87A-E14E-A7B9-8AD02839F120}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5138BCA-63E8-42E2-81FA-07FC2BFDE636}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{0B725299-4060-418E-A1A8-086098773DCE}"/>
+    <workbookView xWindow="28680" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{0B725299-4060-418E-A1A8-086098773DCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 1" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>Segment</t>
-  </si>
-  <si>
-    <t>PST</t>
   </si>
   <si>
     <t>UTC+1</t>
@@ -108,12 +105,6 @@
     <t>Long Break</t>
   </si>
   <si>
-    <t>Office Hours</t>
-  </si>
-  <si>
-    <t>White-board Design Session</t>
-  </si>
-  <si>
     <t>Intro White-board Design Session and break (Dan)</t>
   </si>
   <si>
@@ -138,7 +129,34 @@
     <t>Instructors in Breakout Rooms</t>
   </si>
   <si>
-    <t>https://github.com/solliancenet/cloud-core-2020/blob/main/cloudfun/day-1/Designing%20for%20the%20Microsoft%20Cloud%20WBDS%20-%20Student%20Guide.docx</t>
+    <t>https://bit.ly/37ENRLj</t>
+  </si>
+  <si>
+    <t>Breakouts: WDS Review Business Needs</t>
+  </si>
+  <si>
+    <t>Breakouts: WDS Design &amp; Prepare PPT</t>
+  </si>
+  <si>
+    <t>Breakouts: Read out to Proctor</t>
+  </si>
+  <si>
+    <t>MDT</t>
+  </si>
+  <si>
+    <t>PDT</t>
+  </si>
+  <si>
+    <t>CDT</t>
+  </si>
+  <si>
+    <t>EDT</t>
+  </si>
+  <si>
+    <t>EET</t>
+  </si>
+  <si>
+    <t>Office Hours - Main meeting</t>
   </si>
 </sst>
 </file>
@@ -149,7 +167,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,7 +372,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -477,6 +495,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -794,36 +815,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E4B0A8-464F-4AF5-B347-B884E1DE50D1}">
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomRight" activeCell="G18" sqref="G18:G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="33" customWidth="1"/>
-    <col min="2" max="3" width="10.5" style="34" customWidth="1"/>
-    <col min="4" max="4" width="8.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.5" style="36" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="36" customWidth="1"/>
-    <col min="7" max="7" width="57.33203125" style="36" customWidth="1"/>
-    <col min="8" max="8" width="28.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.5" style="36" customWidth="1"/>
-    <col min="10" max="10" width="19" style="36" customWidth="1"/>
-    <col min="11" max="11" width="18.5" style="36" customWidth="1"/>
-    <col min="12" max="12" width="22.5" style="36" customWidth="1"/>
-    <col min="13" max="13" width="32.5" style="36" customWidth="1"/>
-    <col min="14" max="14" width="35.5" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="12.5" style="1"/>
+    <col min="1" max="1" width="10.42578125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="34" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.42578125" style="36" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" style="36" customWidth="1"/>
+    <col min="11" max="11" width="57.28515625" style="36" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="36" customWidth="1"/>
+    <col min="13" max="13" width="31.42578125" style="36" customWidth="1"/>
+    <col min="14" max="14" width="19" style="36" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" style="36" customWidth="1"/>
+    <col min="16" max="16" width="22.42578125" style="36" customWidth="1"/>
+    <col min="17" max="17" width="32.42578125" style="36" customWidth="1"/>
+    <col min="18" max="18" width="35.42578125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="12.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="31">
+    <row r="1" spans="1:18" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -838,1198 +862,1719 @@
       <c r="L1" s="38"/>
       <c r="M1" s="38"/>
       <c r="N1" s="38"/>
-    </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="17">
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+    </row>
+    <row r="2" spans="1:18" s="5" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="N2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="O2" s="40"/>
+      <c r="P2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="10" customFormat="1" ht="16">
+    </row>
+    <row r="3" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="41"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
-    </row>
-    <row r="4" spans="1:14" s="10" customFormat="1" ht="16">
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+    </row>
+    <row r="4" spans="1:18" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="41"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
-      <c r="N4" s="11"/>
-    </row>
-    <row r="5" spans="1:14" s="10" customFormat="1" ht="16">
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="11"/>
+    </row>
+    <row r="5" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="41"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
-    </row>
-    <row r="6" spans="1:14" s="10" customFormat="1" ht="65.5" customHeight="1">
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+    </row>
+    <row r="6" spans="1:18" s="10" customFormat="1" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="41"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-    </row>
-    <row r="7" spans="1:14" s="10" customFormat="1" ht="16">
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+    </row>
+    <row r="7" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="41"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
-    </row>
-    <row r="8" spans="1:14" s="10" customFormat="1" ht="16">
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+    </row>
+    <row r="8" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="41"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
-    </row>
-    <row r="9" spans="1:14" s="10" customFormat="1" ht="16">
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+    </row>
+    <row r="9" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="41"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
-    </row>
-    <row r="10" spans="1:14" s="10" customFormat="1" ht="16">
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+    </row>
+    <row r="10" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="41"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="1:14" s="10" customFormat="1" ht="16">
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+    </row>
+    <row r="11" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
-    </row>
-    <row r="12" spans="1:14" s="10" customFormat="1" ht="16">
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+    </row>
+    <row r="12" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
-    </row>
-    <row r="13" spans="1:14" s="10" customFormat="1" ht="16">
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+    </row>
+    <row r="13" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="41"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="13"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
-    </row>
-    <row r="14" spans="1:14" s="10" customFormat="1" ht="16">
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+    </row>
+    <row r="14" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="13"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
-    </row>
-    <row r="15" spans="1:14" s="10" customFormat="1" ht="16">
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+    </row>
+    <row r="15" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="13"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
-    </row>
-    <row r="16" spans="1:14" s="10" customFormat="1" ht="16">
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+    </row>
+    <row r="16" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="13"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
-    </row>
-    <row r="17" spans="1:14" s="10" customFormat="1" ht="17">
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+    </row>
+    <row r="17" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
       <c r="N17" s="18"/>
-    </row>
-    <row r="18" spans="1:14" s="10" customFormat="1" ht="94.25" customHeight="1">
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+    </row>
+    <row r="18" spans="1:18" s="10" customFormat="1" ht="94.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>1</v>
       </c>
       <c r="B18" s="6">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="C18" s="7">
+        <f>MOD(F18-(7/24),1)</f>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="C18" s="42">
+        <f>MOD(F18-(6/24),1)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="D18" s="42">
+        <f>MOD(F18-(5/24),1)</f>
+        <v>0.10416666666666666</v>
+      </c>
+      <c r="E18" s="42">
+        <f>MOD(F18-(4/24),1)</f>
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="F18" s="7">
         <v>0.3125</v>
       </c>
-      <c r="D18" s="8">
+      <c r="G18" s="7">
+        <f>MOD(F18+(2/24),1)</f>
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="H18" s="8">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="9"/>
+      <c r="I18" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="J18" s="9"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="9"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="20"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
-    </row>
-    <row r="19" spans="1:14" s="10" customFormat="1" ht="17">
-      <c r="A19" s="22">
+      <c r="O18" s="21"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+    </row>
+    <row r="19" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19">
         <v>2</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="23">
+      <c r="B19" s="6">
+        <f t="shared" ref="B19:B30" si="0">MOD(F19-(7/24),1)</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="C19" s="42">
+        <f t="shared" ref="C19:C30" si="1">MOD(F19-(6/24),1)</f>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="D19" s="42">
+        <f t="shared" ref="D19:D30" si="2">MOD(F19-(5/24),1)</f>
+        <v>0.12499999999999997</v>
+      </c>
+      <c r="E19" s="42">
+        <f t="shared" ref="E19:E30" si="3">MOD(F19-(4/24),1)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F19" s="23">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D19" s="13">
+      <c r="G19" s="7">
+        <f t="shared" ref="G19:G30" si="4">MOD(F19+(2/24),1)</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="H19" s="13">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="I19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="24"/>
+      <c r="M19" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+    </row>
+    <row r="20" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19">
+        <v>3</v>
+      </c>
+      <c r="B20" s="6">
+        <f t="shared" si="0"/>
+        <v>5.2083333333333315E-2</v>
+      </c>
+      <c r="C20" s="42">
+        <f t="shared" si="1"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="D20" s="42">
+        <f t="shared" si="2"/>
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="E20" s="42">
+        <f t="shared" si="3"/>
+        <v>0.17708333333333334</v>
+      </c>
+      <c r="F20" s="23">
+        <v>0.34375</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" si="4"/>
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="H20" s="8">
+        <v>3.125E-2</v>
+      </c>
+      <c r="I20" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="10" t="s">
+      <c r="J20" s="9"/>
+      <c r="K20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+    </row>
+    <row r="21" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19">
+        <v>4</v>
+      </c>
+      <c r="B21" s="6">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="C21" s="42">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="D21" s="42">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E21" s="42">
+        <f t="shared" si="3"/>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="F21" s="23">
+        <v>0.375</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" si="4"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H21" s="8">
+        <v>3.125E-2</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="9"/>
+      <c r="M21" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+    </row>
+    <row r="22" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19">
+        <v>5</v>
+      </c>
+      <c r="B22" s="6">
+        <f t="shared" si="0"/>
+        <v>0.11458333333333331</v>
+      </c>
+      <c r="C22" s="42">
+        <f t="shared" si="1"/>
+        <v>0.15625</v>
+      </c>
+      <c r="D22" s="42">
+        <f t="shared" si="2"/>
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="E22" s="42">
+        <f t="shared" si="3"/>
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="F22" s="23">
+        <v>0.40625</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="4"/>
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="H22" s="13">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="21" t="s">
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+    </row>
+    <row r="23" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19">
+        <v>6</v>
+      </c>
+      <c r="B23" s="6">
+        <f t="shared" si="0"/>
+        <v>0.12847222222222221</v>
+      </c>
+      <c r="C23" s="42">
+        <f t="shared" si="1"/>
+        <v>0.1701388888888889</v>
+      </c>
+      <c r="D23" s="42">
+        <f t="shared" si="2"/>
+        <v>0.21180555555555555</v>
+      </c>
+      <c r="E23" s="42">
+        <f t="shared" si="3"/>
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="F23" s="23">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="4"/>
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="H23" s="13">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-    </row>
-    <row r="20" spans="1:14" s="10" customFormat="1" ht="17">
-      <c r="A20" s="22">
-        <v>3</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="23">
-        <v>0.34375</v>
-      </c>
-      <c r="D20" s="8">
-        <v>3.125E-2</v>
-      </c>
-      <c r="E20" s="9" t="s">
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+    </row>
+    <row r="24" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="19">
+        <v>7</v>
+      </c>
+      <c r="B24" s="6">
+        <f t="shared" si="0"/>
+        <v>0.14236111111111105</v>
+      </c>
+      <c r="C24" s="42">
+        <f t="shared" si="1"/>
+        <v>0.18402777777777773</v>
+      </c>
+      <c r="D24" s="42">
+        <f t="shared" si="2"/>
+        <v>0.22569444444444439</v>
+      </c>
+      <c r="E24" s="42">
+        <f t="shared" si="3"/>
+        <v>0.26736111111111105</v>
+      </c>
+      <c r="F24" s="23">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="G24" s="7">
+        <f t="shared" si="4"/>
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="H24" s="13">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-    </row>
-    <row r="21" spans="1:14" s="10" customFormat="1" ht="17">
-      <c r="A21" s="22">
-        <v>4</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="23">
-        <v>0.375</v>
-      </c>
-      <c r="D21" s="8">
-        <v>3.125E-2</v>
-      </c>
-      <c r="E21" s="9" t="s">
+      <c r="L24" s="9"/>
+      <c r="M24" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+    </row>
+    <row r="25" spans="1:18" s="10" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="19">
+        <v>8</v>
+      </c>
+      <c r="B25" s="6">
+        <f t="shared" si="0"/>
+        <v>0.15625</v>
+      </c>
+      <c r="C25" s="42">
+        <f t="shared" si="1"/>
+        <v>0.19791666666666669</v>
+      </c>
+      <c r="D25" s="42">
+        <f t="shared" si="2"/>
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="E25" s="42">
+        <f t="shared" si="3"/>
+        <v>0.28125</v>
+      </c>
+      <c r="F25" s="23">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" si="4"/>
+        <v>0.53125</v>
+      </c>
+      <c r="H25" s="13">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="9"/>
+      <c r="K25" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+    </row>
+    <row r="26" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="19">
+        <v>9</v>
+      </c>
+      <c r="B26" s="6">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="C26" s="42">
+        <f t="shared" si="1"/>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="D26" s="42">
+        <f t="shared" si="2"/>
+        <v>0.24999999999999997</v>
+      </c>
+      <c r="E26" s="42">
+        <f t="shared" si="3"/>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="F26" s="23">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G26" s="7">
+        <f t="shared" si="4"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H26" s="13">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="I26" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-    </row>
-    <row r="22" spans="1:14" s="10" customFormat="1" ht="17">
-      <c r="A22" s="22">
-        <v>5</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="23">
-        <v>0.4201388888888889</v>
-      </c>
-      <c r="D22" s="13">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-    </row>
-    <row r="23" spans="1:14" s="10" customFormat="1" ht="17">
-      <c r="A23" s="22">
-        <v>6</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="23">
-        <v>0.43402777777777773</v>
-      </c>
-      <c r="D23" s="13">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-    </row>
-    <row r="24" spans="1:14" s="10" customFormat="1" ht="17">
-      <c r="A24" s="22">
-        <v>7</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="23">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="D24" s="13">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-    </row>
-    <row r="25" spans="1:14" s="10" customFormat="1" ht="17">
-      <c r="A25" s="22">
-        <v>8</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="23">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D25" s="13">
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-    </row>
-    <row r="26" spans="1:14" s="10" customFormat="1" ht="17">
-      <c r="A26" s="22">
-        <v>9</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="D26" s="13">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="25"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="25"/>
       <c r="N26" s="9"/>
-    </row>
-    <row r="27" spans="1:14" s="10" customFormat="1" ht="64">
-      <c r="A27" s="22">
+      <c r="O26" s="9"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+    </row>
+    <row r="27" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="19">
         <v>10</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="23">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="D27" s="13">
-        <v>7.2916666666666671E-2</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" s="9"/>
+      <c r="B27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="C27" s="42">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="D27" s="42">
+        <f t="shared" si="2"/>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="E27" s="42">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="F27" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G27" s="7">
+        <f t="shared" si="4"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H27" s="13">
+        <v>1.0416666666666666E-2</v>
+      </c>
       <c r="I27" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="N27" s="9"/>
-    </row>
-    <row r="28" spans="1:14" s="10" customFormat="1" ht="17">
-      <c r="A28" s="22">
+      <c r="O27" s="9"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+    </row>
+    <row r="28" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="19">
         <v>11</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="23">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D28" s="13">
+      <c r="B28" s="6">
+        <f t="shared" si="0"/>
+        <v>0.71875</v>
+      </c>
+      <c r="C28" s="42">
+        <f t="shared" si="1"/>
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="D28" s="42">
+        <f t="shared" si="2"/>
+        <v>0.80208333333333326</v>
+      </c>
+      <c r="E28" s="42">
+        <f t="shared" si="3"/>
+        <v>0.84375</v>
+      </c>
+      <c r="F28" s="23">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="E28" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="25" t="s">
-        <v>29</v>
+      <c r="G28" s="7">
+        <f t="shared" si="4"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="H28" s="13">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="N28" s="9"/>
-    </row>
-    <row r="29" spans="1:14" s="10" customFormat="1" ht="16">
-      <c r="A29" s="19"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+    </row>
+    <row r="29" spans="1:18" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="19">
+        <v>12</v>
+      </c>
+      <c r="B29" s="6">
+        <f t="shared" si="0"/>
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C29" s="42">
+        <f t="shared" si="1"/>
+        <v>0.3125</v>
+      </c>
+      <c r="D29" s="42">
+        <f t="shared" si="2"/>
+        <v>0.35416666666666663</v>
+      </c>
+      <c r="E29" s="42">
+        <f t="shared" si="3"/>
+        <v>0.39583333333333337</v>
+      </c>
+      <c r="F29" s="23">
+        <v>0.5625</v>
+      </c>
+      <c r="G29" s="7">
+        <f t="shared" si="4"/>
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="H29" s="13">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
+      <c r="K29" s="37"/>
       <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
+      <c r="M29" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="N29" s="9"/>
-    </row>
-    <row r="30" spans="1:14" s="10" customFormat="1" ht="16">
-      <c r="A30" s="19"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-    </row>
-    <row r="31" spans="1:14" s="10" customFormat="1" ht="16" hidden="1">
-      <c r="A31" s="22"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+    </row>
+    <row r="30" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="19">
+        <v>13</v>
+      </c>
+      <c r="B30" s="6">
+        <f t="shared" si="0"/>
+        <v>0.28124999999999994</v>
+      </c>
+      <c r="C30" s="42">
+        <f t="shared" si="1"/>
+        <v>0.32291666666666663</v>
+      </c>
+      <c r="D30" s="42">
+        <f t="shared" si="2"/>
+        <v>0.36458333333333326</v>
+      </c>
+      <c r="E30" s="42">
+        <f t="shared" si="3"/>
+        <v>0.40625</v>
+      </c>
+      <c r="F30" s="23">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="G30" s="7">
+        <f t="shared" si="4"/>
+        <v>0.65625</v>
+      </c>
+      <c r="H30" s="13">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+    </row>
+    <row r="31" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="25"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="9"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="25"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="9"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
-    </row>
-    <row r="32" spans="1:14" s="10" customFormat="1" ht="16" hidden="1">
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+    </row>
+    <row r="32" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19"/>
       <c r="B32" s="6"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-    </row>
-    <row r="33" spans="1:14" s="10" customFormat="1" ht="16">
-      <c r="A33" s="19"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+    </row>
+    <row r="33" spans="1:18" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-    </row>
-    <row r="34" spans="1:14" s="10" customFormat="1" ht="16">
-      <c r="A34" s="22"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+    </row>
+    <row r="34" spans="1:18" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="25"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="9"/>
       <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="9"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="25"/>
       <c r="N34" s="9"/>
-    </row>
-    <row r="35" spans="1:14" s="32" customFormat="1" ht="16">
+      <c r="O34" s="9"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+    </row>
+    <row r="35" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19"/>
       <c r="B35" s="6"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-    </row>
-    <row r="36" spans="1:14" s="10" customFormat="1" ht="16">
-      <c r="A36" s="19"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+    </row>
+    <row r="36" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="22"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="13"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
+      <c r="M36" s="25"/>
       <c r="N36" s="9"/>
-    </row>
-    <row r="37" spans="1:14" s="10" customFormat="1" ht="16">
-      <c r="A37" s="22"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+    </row>
+    <row r="37" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="19"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-    </row>
-    <row r="38" spans="1:14" s="10" customFormat="1" ht="16">
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="30"/>
+    </row>
+    <row r="38" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="19"/>
       <c r="B38" s="6"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="8"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
-    </row>
-    <row r="39" spans="1:14" s="10" customFormat="1" ht="16">
-      <c r="A39" s="19"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+    </row>
+    <row r="39" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="22"/>
       <c r="B39" s="6"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="8"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
-    </row>
-    <row r="40" spans="1:14" s="10" customFormat="1" ht="16">
-      <c r="A40" s="22"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+    </row>
+    <row r="40" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="19"/>
       <c r="B40" s="6"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="8"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
-    </row>
-    <row r="41" spans="1:14" s="10" customFormat="1" ht="16">
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+    </row>
+    <row r="41" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="9"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="8"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
-    </row>
-    <row r="42" spans="1:14" s="10" customFormat="1" ht="16">
-      <c r="A42" s="19"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+    </row>
+    <row r="42" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="22"/>
       <c r="B42" s="6"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-    </row>
-    <row r="43" spans="1:14" s="10" customFormat="1" ht="16">
-      <c r="A43" s="22"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+    </row>
+    <row r="43" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="19"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="25"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="9"/>
       <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="25"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="9"/>
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
-    </row>
-    <row r="44" spans="1:14" s="10" customFormat="1" ht="16">
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+    </row>
+    <row r="44" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-    </row>
-    <row r="45" spans="1:14" s="10" customFormat="1" ht="16">
-      <c r="A45" s="19"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27"/>
+    </row>
+    <row r="45" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="22"/>
       <c r="B45" s="6"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="13"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
+      <c r="M45" s="25"/>
       <c r="N45" s="9"/>
-    </row>
-    <row r="46" spans="1:14" s="10" customFormat="1" ht="16">
-      <c r="A46" s="22"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+    </row>
+    <row r="46" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="19"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="13"/>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
+      <c r="K46" s="21"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
-    </row>
-    <row r="47" spans="1:14" s="10" customFormat="1" ht="16">
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+    </row>
+    <row r="47" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="19"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="8"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
-    </row>
-    <row r="48" spans="1:14" s="10" customFormat="1" ht="16">
-      <c r="A48" s="19"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+    </row>
+    <row r="48" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="22"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="8"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
-    </row>
-    <row r="49" spans="1:14" s="10" customFormat="1" ht="16">
-      <c r="A49" s="22"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+    </row>
+    <row r="49" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="19"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="9"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="8"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
-    </row>
-    <row r="50" spans="1:14" s="10" customFormat="1" ht="16">
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+    </row>
+    <row r="50" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="9"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="8"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
-    </row>
-    <row r="51" spans="1:14" s="10" customFormat="1" ht="16">
-      <c r="A51" s="19"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+    </row>
+    <row r="51" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="22"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="9"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="8"/>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
+      <c r="K51" s="21"/>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
-    </row>
-    <row r="52" spans="1:14" s="10" customFormat="1" ht="16">
-      <c r="A52" s="22"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+    </row>
+    <row r="52" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="19"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="27"/>
-    </row>
-    <row r="53" spans="1:14" s="10" customFormat="1" ht="16">
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+    </row>
+    <row r="53" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="19"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="9"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="13"/>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="25"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="9"/>
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
-    </row>
-    <row r="54" spans="1:14" s="10" customFormat="1" ht="16">
-      <c r="A54" s="19"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+    </row>
+    <row r="54" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="22"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
-    </row>
-    <row r="55" spans="1:14" s="10" customFormat="1" ht="16">
-      <c r="A55" s="22"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="27"/>
+      <c r="P54" s="27"/>
+      <c r="Q54" s="27"/>
+      <c r="R54" s="27"/>
+    </row>
+    <row r="55" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="19"/>
       <c r="B55" s="6"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="9"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="13"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
+      <c r="K55" s="21"/>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
-    </row>
-    <row r="56" spans="1:14" s="10" customFormat="1" ht="16">
+      <c r="O55" s="9"/>
+      <c r="P55" s="25"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+    </row>
+    <row r="56" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="19"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="9"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="13"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
+      <c r="K56" s="21"/>
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
       <c r="N56" s="9"/>
-    </row>
-    <row r="57" spans="1:14" s="10" customFormat="1" ht="16">
-      <c r="A57" s="19"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+    </row>
+    <row r="57" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="22"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="9"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="8"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
+      <c r="K57" s="21"/>
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
-    </row>
-    <row r="58" spans="1:14" s="10" customFormat="1" ht="16">
-      <c r="A58" s="22"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+    </row>
+    <row r="58" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="19"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="9"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="13"/>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
+      <c r="K58" s="21"/>
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
-    </row>
-    <row r="59" spans="1:14" s="10" customFormat="1" ht="16">
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+    </row>
+    <row r="59" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="19"/>
       <c r="B59" s="6"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="9"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="13"/>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
+      <c r="K59" s="21"/>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
-    </row>
-    <row r="60" spans="1:14" s="10" customFormat="1" ht="16">
-      <c r="A60" s="19"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+    </row>
+    <row r="60" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="22"/>
       <c r="B60" s="6"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="27"/>
-      <c r="L60" s="27"/>
-      <c r="M60" s="27"/>
-      <c r="N60" s="27"/>
-    </row>
-    <row r="61" spans="1:14" s="10" customFormat="1" ht="16">
-      <c r="A61" s="14"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="18"/>
-      <c r="L61" s="18"/>
-      <c r="M61" s="18"/>
-      <c r="N61" s="18"/>
-    </row>
-    <row r="62" spans="1:14" s="10" customFormat="1" ht="16">
-      <c r="A62" s="22">
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+    </row>
+    <row r="61" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="19"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
+    </row>
+    <row r="62" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="19"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="27"/>
+      <c r="L62" s="27"/>
+      <c r="M62" s="27"/>
+      <c r="N62" s="27"/>
+      <c r="O62" s="27"/>
+      <c r="P62" s="27"/>
+      <c r="Q62" s="27"/>
+      <c r="R62" s="27"/>
+    </row>
+    <row r="63" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="14"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="18"/>
+      <c r="O63" s="18"/>
+      <c r="P63" s="18"/>
+      <c r="Q63" s="18"/>
+      <c r="R63" s="18"/>
+    </row>
+    <row r="64" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="22">
         <v>44</v>
       </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="21"/>
-      <c r="M62" s="21"/>
-      <c r="N62" s="21"/>
-    </row>
-    <row r="63" spans="1:14" s="10" customFormat="1" ht="16">
-      <c r="A63" s="22">
-        <v>45</v>
-      </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="21"/>
-      <c r="K63" s="21"/>
-      <c r="L63" s="21"/>
-      <c r="M63" s="21"/>
-      <c r="N63" s="21"/>
-    </row>
-    <row r="64" spans="1:14" s="10" customFormat="1" ht="16">
-      <c r="A64" s="22">
-        <v>46</v>
-      </c>
       <c r="B64" s="6"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="9"/>
       <c r="J64" s="21"/>
       <c r="K64" s="21"/>
       <c r="L64" s="21"/>
       <c r="M64" s="21"/>
-      <c r="N64" s="21"/>
-    </row>
-    <row r="65" spans="1:14" s="10" customFormat="1" ht="16">
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="21"/>
+      <c r="Q64" s="21"/>
+      <c r="R64" s="21"/>
+    </row>
+    <row r="65" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="22">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B65" s="6"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="9"/>
       <c r="J65" s="21"/>
       <c r="K65" s="21"/>
       <c r="L65" s="21"/>
       <c r="M65" s="21"/>
       <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="21"/>
+      <c r="R65" s="21"/>
+    </row>
+    <row r="66" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="22">
+        <v>46</v>
+      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="21"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="21"/>
+      <c r="R66" s="21"/>
+    </row>
+    <row r="67" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="22">
+        <v>47</v>
+      </c>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="21"/>
+      <c r="R67" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="A3:A16"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G27" r:id="rId1" xr:uid="{CFF90FEA-E668-D749-971E-6B9AFDF79DE0}"/>
+    <hyperlink ref="K25" r:id="rId1" xr:uid="{67ECEA09-8ADE-44EA-9C80-0128E8A68308}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="landscape" r:id="rId2"/>
